--- a/history/общий 22.03.xlsx
+++ b/history/общий 22.03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63941CDD-4A11-4DFA-99C5-35B250C876A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072BA49-B389-4CFF-9631-E3D5D28C1E47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2812,6 +2812,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3306,7 +3308,7 @@
   <dimension ref="A1:CR425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CV169" sqref="CV7:CW169"/>
+      <selection activeCell="CW71" sqref="CW5:CX71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -77239,27 +77241,7 @@
         <customFilter operator="greaterThan" val="0"/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="49">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="50">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="68">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0"/>
-      </customFilters>
-    </filterColumn>
     <filterColumn colId="69">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="87">
       <customFilters>
         <customFilter operator="greaterThan" val="0"/>
       </customFilters>
